--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Digitale Produktion\smarte-Filament-Trockenbox\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB44144-37C2-4A96-A404-FAEEEB1AF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA854816-253A-43F3-85C4-149150374DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{6E6AB112-8D7B-489C-ABF0-869719DE63F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6E6AB112-8D7B-489C-ABF0-869719DE63F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,13 +124,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +469,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +518,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -552,6 +563,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{69811758-E230-4B57-9B5C-474CF77B3C61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>